--- a/simulation/simulation_10genes.xlsx
+++ b/simulation/simulation_10genes.xlsx
@@ -11,9 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>gene1</t>
+  </si>
+  <si>
+    <t>gene2</t>
+  </si>
+  <si>
+    <t>gene3</t>
+  </si>
+  <si>
+    <t>gene4</t>
+  </si>
+  <si>
+    <t>gene5</t>
+  </si>
+  <si>
+    <t>gene6</t>
+  </si>
+  <si>
+    <t>gene7</t>
+  </si>
+  <si>
+    <t>gene8</t>
+  </si>
+  <si>
+    <t>gene9</t>
+  </si>
+  <si>
+    <t>gene10</t>
   </si>
   <si>
     <t>GSM126531</t>
@@ -454,17 +484,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -492,10 +522,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -743,12 +773,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1035,7 +1065,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1063,10 +1093,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1341,40 +1371,40 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>0.1647</v>
@@ -1409,7 +1439,7 @@
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>0.187159</v>
@@ -1444,7 +1474,7 @@
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>0.147741</v>
@@ -1479,7 +1509,7 @@
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>-0.007715</v>
@@ -1514,7 +1544,7 @@
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>-0.086216</v>
@@ -1549,7 +1579,7 @@
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>-0.045739</v>
@@ -1584,7 +1614,7 @@
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>-0.009757999999999999</v>
@@ -1619,7 +1649,7 @@
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>0.029945</v>
@@ -1654,7 +1684,7 @@
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>0.052101</v>
@@ -1689,7 +1719,7 @@
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
         <v>0.007861</v>
@@ -1724,7 +1754,7 @@
     </row>
     <row r="12" ht="17" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
         <v>-0.065695</v>
@@ -1759,7 +1789,7 @@
     </row>
     <row r="13" ht="17" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3">
         <v>-0.113228</v>
@@ -1794,7 +1824,7 @@
     </row>
     <row r="14" ht="17" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <v>-0.164538</v>
@@ -1829,7 +1859,7 @@
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
         <v>-0.177057</v>
@@ -1864,7 +1894,7 @@
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>-0.055218</v>
@@ -1899,7 +1929,7 @@
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>0.051339</v>
@@ -1934,7 +1964,7 @@
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>0.058889</v>
@@ -1969,7 +1999,7 @@
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3">
         <v>0.022045</v>
@@ -2004,7 +2034,7 @@
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3">
         <v>-0.053385</v>
@@ -2039,7 +2069,7 @@
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
         <v>-0.138826</v>
@@ -2074,7 +2104,7 @@
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3">
         <v>-0.167303</v>
@@ -2109,7 +2139,7 @@
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3">
         <v>-0.08205999999999999</v>
@@ -2144,7 +2174,7 @@
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
         <v>-0.01671</v>
@@ -2179,7 +2209,7 @@
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
         <v>-0.051516</v>
@@ -2214,7 +2244,7 @@
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3">
         <v>-0.09610100000000001</v>
@@ -2249,7 +2279,7 @@
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3">
         <v>-0.107415</v>
@@ -2284,7 +2314,7 @@
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3">
         <v>-0.09450799999999999</v>
@@ -2319,7 +2349,7 @@
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3">
         <v>-0.053646</v>
@@ -2354,7 +2384,7 @@
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3">
         <v>-0.011865</v>
@@ -2389,7 +2419,7 @@
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
         <v>-0.031848</v>
@@ -2424,7 +2454,7 @@
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3">
         <v>-0.059541</v>
@@ -2459,7 +2489,7 @@
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3">
         <v>0.027496</v>
@@ -2494,7 +2524,7 @@
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3">
         <v>0.112946</v>
@@ -2529,7 +2559,7 @@
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3">
         <v>0.122179</v>
@@ -2564,7 +2594,7 @@
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
         <v>0.107298</v>
@@ -2599,7 +2629,7 @@
     </row>
     <row r="37" ht="17" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3">
         <v>-0.011145</v>
@@ -2634,7 +2664,7 @@
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
         <v>-0.119976</v>
@@ -2669,7 +2699,7 @@
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3">
         <v>-0.133988</v>
@@ -2704,7 +2734,7 @@
     </row>
     <row r="40" ht="17" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3">
         <v>-0.067522</v>
@@ -2739,7 +2769,7 @@
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3">
         <v>-0.037579</v>
@@ -2774,7 +2804,7 @@
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3">
         <v>-0.049821</v>
@@ -2809,7 +2839,7 @@
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
         <v>0.040415</v>
@@ -2844,7 +2874,7 @@
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3">
         <v>0.182263</v>
@@ -2879,7 +2909,7 @@
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3">
         <v>0.194555</v>
@@ -2914,7 +2944,7 @@
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3">
         <v>0.143719</v>
@@ -2949,7 +2979,7 @@
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
         <v>0.177897</v>
@@ -2984,7 +3014,7 @@
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3">
         <v>0.214558</v>
